--- a/src/data/tienda360.xlsx
+++ b/src/data/tienda360.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmatiasm/Documents/MATIAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmatiasm/Documents/MATIAS/PROYECTO-MATIAS/Calin_Repositorio_Mocks/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C64961-DD19-974A-B2CE-2D963DDA3F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C377F766-25C0-D14C-BEB4-D81137FA450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{A60726CA-E045-3D44-984C-DD3A0D447AE4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>imagen de gaseosa</t>
+  </si>
+  <si>
+    <t>vicio</t>
+  </si>
+  <si>
+    <t>imagen de producto</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1018D657-1B63-1F42-8956-31EDCD85751D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,6 +574,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/tienda360.xlsx
+++ b/src/data/tienda360.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmatiasm/Documents/MATIAS/PROYECTO-MATIAS/Calin_Repositorio_Mocks/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C377F766-25C0-D14C-BEB4-D81137FA450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC7F2E4-88FE-A64A-B4B3-6E907C6C9D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{A60726CA-E045-3D44-984C-DD3A0D447AE4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11320" xr2:uid="{A60726CA-E045-3D44-984C-DD3A0D447AE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="dulces" sheetId="1" r:id="rId1"/>
+    <sheet name="bebidas" sheetId="2" r:id="rId2"/>
+    <sheet name="verdura" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -43,55 +45,160 @@
     <t>name</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>S/</t>
-  </si>
-  <si>
-    <t>leche gloria chico</t>
-  </si>
-  <si>
-    <t>gaseosa inkacola 3 Litros</t>
-  </si>
-  <si>
-    <t>aceite primor 1 litro</t>
-  </si>
-  <si>
-    <t>galleta oreo grande</t>
-  </si>
-  <si>
-    <t>fideos tallarin don victorio</t>
-  </si>
-  <si>
-    <t>mermelada</t>
-  </si>
-  <si>
-    <t>imagen de leches</t>
-  </si>
-  <si>
-    <t>imagen de mermelada</t>
-  </si>
-  <si>
-    <t>imagen de fideos</t>
-  </si>
-  <si>
-    <t>imagen de galleta</t>
-  </si>
-  <si>
-    <t>imagen de gaseosa</t>
-  </si>
-  <si>
-    <t>vicio</t>
-  </si>
-  <si>
-    <t>imagen de producto</t>
+    <t xml:space="preserve">sublime mediano </t>
+  </si>
+  <si>
+    <t>sublime de leche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minisublime     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sublime chico   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sublime grande  </t>
+  </si>
+  <si>
+    <t>bebidas</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>dulces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rellenitas      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oreo pequeño    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tentacion       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimorochas    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocochip       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vainilla        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oreo grande     </t>
+  </si>
+  <si>
+    <t>vainilla pequeño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">princesa        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vicio           </t>
+  </si>
+  <si>
+    <t>galleta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicle bubalu      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caramelo hals      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bugui              </t>
+  </si>
+  <si>
+    <t>galleta club social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mentitas           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trident            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inkacola chico  </t>
+  </si>
+  <si>
+    <t>inkacola 1 litro</t>
+  </si>
+  <si>
+    <t>inkacola 2 litro</t>
+  </si>
+  <si>
+    <t>inkacola 3 litro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cocacola chico  </t>
+  </si>
+  <si>
+    <t>cocacola 1 litro</t>
+  </si>
+  <si>
+    <t>cocacola 2 litro</t>
+  </si>
+  <si>
+    <t>cocacola 3 litro</t>
+  </si>
+  <si>
+    <t>gaseosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cielo chico     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cielo grande    </t>
+  </si>
+  <si>
+    <t>cielo con chupon</t>
+  </si>
+  <si>
+    <t>pura vida grande</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">papa blanca 1kg  </t>
+  </si>
+  <si>
+    <t>papa amarilla 1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cebolla 1kg      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajo 1kg          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kion (pedazo)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">palta 1kg        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limon 1kg        </t>
+  </si>
+  <si>
+    <t>verdura</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -443,152 +550,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1018D657-1B63-1F42-8956-31EDCD85751D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE($I$2,D2)</f>
+        <v>A1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:D22" si="0">CONCATENATE($I$2,D3)</f>
+        <v>A2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>A3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>A4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>A5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>A6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>A7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>A8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>A9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>A10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>A11</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>A12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>A13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>A14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>A15</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>A16</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>A17</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>A18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>A19</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>A20</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>A21</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0102D324-BD5C-42CD-9253-59E0A391999E}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD13891F-FE59-46AE-8E75-2C91A824526A}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>3.2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>11.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>5.6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>1.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>1.3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
